--- a/data/trans_media/IQ17B_M-Estudios-trans_media.xlsx
+++ b/data/trans_media/IQ17B_M-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,37 +864,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 4,05</t>
+          <t>2,86; 4,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 3,05</t>
+          <t>2,07; 3,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,27</t>
+          <t>2,07; 3,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 4,01</t>
+          <t>2,21; 4,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,17</t>
+          <t>2,13; 3,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 3,21</t>
+          <t>2,29; 3,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 2,57</t>
+          <t>1,44; 2,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,53</t>
+          <t>2,66; 3,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 2,97</t>
+          <t>2,3; 2,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 2,8</t>
+          <t>1,95; 2,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 3,65</t>
+          <t>2,5; 3,69</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 3,55</t>
+          <t>3,1; 3,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 3,36</t>
+          <t>2,89; 3,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 3,19</t>
+          <t>2,73; 3,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 3,44</t>
+          <t>2,75; 3,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 3,49</t>
+          <t>3,04; 3,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 3,24</t>
+          <t>2,83; 3,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 3,36</t>
+          <t>2,91; 3,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 3,91</t>
+          <t>3,34; 3,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 3,46</t>
+          <t>3,14; 3,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 3,24</t>
+          <t>2,92; 3,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 3,19</t>
+          <t>2,87; 3,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 3,55</t>
+          <t>3,1; 3,58</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 3,44</t>
+          <t>2,68; 3,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,22</t>
+          <t>2,52; 3,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,18</t>
+          <t>2,52; 3,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 4,36</t>
+          <t>3,4; 4,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 3,43</t>
+          <t>2,64; 3,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 3,58</t>
+          <t>2,83; 3,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 3,27</t>
+          <t>2,61; 3,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 4,16</t>
+          <t>3,19; 4,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,33</t>
+          <t>2,76; 3,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 3,24</t>
+          <t>2,73; 3,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,12</t>
+          <t>2,65; 3,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 4,1</t>
+          <t>3,39; 4,09</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,1; 3,48</t>
+          <t>3,08; 3,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 3,17</t>
+          <t>2,82; 3,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,09</t>
+          <t>2,72; 3,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,52</t>
+          <t>2,99; 3,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 3,34</t>
+          <t>2,95; 3,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,85; 3,21</t>
+          <t>2,85; 3,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,8; 3,15</t>
+          <t>2,8; 3,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,31; 3,82</t>
+          <t>3,31; 3,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,08; 3,34</t>
+          <t>3,08; 3,35</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,89; 3,14</t>
+          <t>2,87; 3,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,81; 3,07</t>
+          <t>2,8; 3,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 3,57</t>
+          <t>3,22; 3,59</t>
         </is>
       </c>
     </row>
